--- a/similarities/split_global/harmonic_similarity_timestamps_196.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_196.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['D:7', 'G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:42.620000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:09.910000', '0:00:14')]</t>
+          <t>('0:00:09.940000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=42.62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:00:24.680000', '0:00:31.240000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'C:7', 'F']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:14.200000', '0:01:28')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:14.450000')]</t>
+          <t>('0:00:07.840000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:12.580000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+          <t>('0:00:36.160000', '0:00:41.200000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=36.16</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:11.465419', '0:00:19.151224')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'B:maj', 'F#:maj']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.960000', '0:00:12.940000')]</t>
+          <t>('0:00:11', '0:00:17.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.779093', '0:00:14.076327')]</t>
+          <t>('0:01:37.620000', '0:01:53.780000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=11.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=97.62</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:51.760000', '0:02:08.800000'), ('0:00:14.420000', '0:00:49.560000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:27.820000', '0:00:37.720000'), ('0:00:32.700000', '0:00:40.640000')]</t>
+          <t>('0:00:17.120000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=111.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=14.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=27.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=32.7']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:10.540000', '0:00:14.760000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:00:04.605000', '0:00:21.095000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:09.861020', '0:00:33.724965')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=9.86102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:00:09.540000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:9', 'C#:maj/G#']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'B:9', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:49.820000', '0:00:53.540000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:33.711833', '0:00:45.368251')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=49.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:20.220000', '0:00:25.620000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.062412', '0:00:12.567886')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
